--- a/M0.4D0.001E0.9A0.8_100x100_MC25_table_experiment.xlsx
+++ b/M0.4D0.001E0.9A0.8_100x100_MC25_table_experiment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2920,6 +2920,806 @@
         <v>0.8016</v>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B100" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>[3237]</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>3237</v>
+      </c>
+      <c r="F100" t="n">
+        <v>4035</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.8022</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B101" t="n">
+        <v>424999</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>[3144]</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>3144</v>
+      </c>
+      <c r="F101" t="n">
+        <v>3943</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.7974</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B102" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>[3232]</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>3232</v>
+      </c>
+      <c r="F102" t="n">
+        <v>4027</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.8026</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B103" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>[3238]</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>3238</v>
+      </c>
+      <c r="F103" t="n">
+        <v>4004</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.8087</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B104" t="n">
+        <v>249999</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>[3183]</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>3183</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3962</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.8034</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B105" t="n">
+        <v>49999</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>[3135]</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>3135</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3988</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.7861</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B106" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>[3143]</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>3143</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3932</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0.7993</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B107" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>[3228]</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>3228</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3998</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0.8074</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>2049</v>
+      </c>
+      <c r="B108" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>[3289]</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>3289</v>
+      </c>
+      <c r="F108" t="n">
+        <v>4039</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0.8143</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>2052</v>
+      </c>
+      <c r="B109" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>[3118]</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>3118</v>
+      </c>
+      <c r="F109" t="n">
+        <v>3925</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0.7944</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>2056</v>
+      </c>
+      <c r="B110" t="n">
+        <v>199999</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>[3225]</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>3225</v>
+      </c>
+      <c r="F110" t="n">
+        <v>4045</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0.7973</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2060</v>
+      </c>
+      <c r="B111" t="n">
+        <v>424999</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>[3231]</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>3231</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4030</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.8017</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>2065</v>
+      </c>
+      <c r="B112" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>[3124]</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>3124</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3918</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.7973</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>2069</v>
+      </c>
+      <c r="B113" t="n">
+        <v>374999</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>[3158]</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>3158</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3951</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0.7993</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>2072</v>
+      </c>
+      <c r="B114" t="n">
+        <v>49999</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>[3251]</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>3251</v>
+      </c>
+      <c r="F114" t="n">
+        <v>3973</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.8183</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>2076</v>
+      </c>
+      <c r="B115" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>[3221]</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>3221</v>
+      </c>
+      <c r="F115" t="n">
+        <v>4023</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0.8006</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>2080</v>
+      </c>
+      <c r="B116" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>[3214]</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>3214</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3981</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0.8073</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>2084</v>
+      </c>
+      <c r="B117" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>[3212]</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>3212</v>
+      </c>
+      <c r="F117" t="n">
+        <v>3954</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.8123</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>2088</v>
+      </c>
+      <c r="B118" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>[3178]</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>3178</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3974</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0.7997</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>2092</v>
+      </c>
+      <c r="B119" t="n">
+        <v>399999</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>[3159]</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>3159</v>
+      </c>
+      <c r="F119" t="n">
+        <v>4004</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.789</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>2096</v>
+      </c>
+      <c r="B120" t="n">
+        <v>274999</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>[3191]</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>3191</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3962</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.8054</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B121" t="n">
+        <v>49999</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>[3192]</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>3192</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3973</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.8034</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>2104</v>
+      </c>
+      <c r="B122" t="n">
+        <v>249999</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>[3263]</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>3263</v>
+      </c>
+      <c r="F122" t="n">
+        <v>4082</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.7994</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>2107</v>
+      </c>
+      <c r="B123" t="n">
+        <v>524999</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>[3275]</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>3275</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3998</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0.8192</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>2111</v>
+      </c>
+      <c r="B124" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>[3235]</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>3235</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4026</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0.8035</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>2115</v>
+      </c>
+      <c r="B125" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>[3202]</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>3202</v>
+      </c>
+      <c r="F125" t="n">
+        <v>3982</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.8041</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>2119</v>
+      </c>
+      <c r="B126" t="n">
+        <v>249999</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>[3227]</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>3227</v>
+      </c>
+      <c r="F126" t="n">
+        <v>3954</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.8161</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>2123</v>
+      </c>
+      <c r="B127" t="n">
+        <v>224999</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>[3228]</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>3228</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3941</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0.8191000000000001</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>2127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>[3121]</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>3121</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3957</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0.7887</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>2131</v>
+      </c>
+      <c r="B129" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>[3167]</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>3167</v>
+      </c>
+      <c r="F129" t="n">
+        <v>3914</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0.8091</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>2135</v>
+      </c>
+      <c r="B130" t="n">
+        <v>299999</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>[3311]</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>3311</v>
+      </c>
+      <c r="F130" t="n">
+        <v>4056</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0.8163</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>2139</v>
+      </c>
+      <c r="B131" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>[3291]</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>3291</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4121</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.7986</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/M0.4D0.001E0.9A0.8_100x100_MC25_table_experiment.xlsx
+++ b/M0.4D0.001E0.9A0.8_100x100_MC25_table_experiment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3720,6 +3720,331 @@
         <v>0.7986</v>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>2143</v>
+      </c>
+      <c r="B132" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>[3103]</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>3103</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3890</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0.7977</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>2147</v>
+      </c>
+      <c r="B133" t="n">
+        <v>224999</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>[3257]</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>3257</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4047</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.8048</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>2151</v>
+      </c>
+      <c r="B134" t="n">
+        <v>299999</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>[3252]</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>3252</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4030</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0.8069</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>2155</v>
+      </c>
+      <c r="B135" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>[3186]</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>3186</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4003</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0.7959000000000001</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>2159</v>
+      </c>
+      <c r="B136" t="n">
+        <v>324999</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>[3248]</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>3248</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4041</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0.8038</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>2163</v>
+      </c>
+      <c r="B137" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>[3312]</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>3312</v>
+      </c>
+      <c r="F137" t="n">
+        <v>4062</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.8154</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>2166</v>
+      </c>
+      <c r="B138" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>[3258]</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>3258</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4021</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.8102</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>2170</v>
+      </c>
+      <c r="B139" t="n">
+        <v>249999</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>[3223]</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>3223</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3988</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0.8082</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2174</v>
+      </c>
+      <c r="B140" t="n">
+        <v>49999</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>[3242]</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>3242</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4008</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.8089</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>2178</v>
+      </c>
+      <c r="B141" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>[3201]</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>3201</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4011</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0.7981</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>2182</v>
+      </c>
+      <c r="B142" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>[3142]</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>3142</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3906</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.8044</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>2186</v>
+      </c>
+      <c r="B143" t="n">
+        <v>224999</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>[3172]</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>3172</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3936</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.8058999999999999</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>2190</v>
+      </c>
+      <c r="B144" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>[3216]</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>3216</v>
+      </c>
+      <c r="F144" t="n">
+        <v>3997</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.8046</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/M0.4D0.001E0.9A0.8_100x100_MC25_table_experiment.xlsx
+++ b/M0.4D0.001E0.9A0.8_100x100_MC25_table_experiment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4045,6 +4045,356 @@
         <v>0.8046</v>
       </c>
     </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>2194</v>
+      </c>
+      <c r="B145" t="n">
+        <v>224999</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>[3288]</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>3288</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4079</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0.8061</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>2198</v>
+      </c>
+      <c r="B146" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>[3239]</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>3239</v>
+      </c>
+      <c r="F146" t="n">
+        <v>3998</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.8102</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>2202</v>
+      </c>
+      <c r="B147" t="n">
+        <v>249999</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>[3163]</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>3163</v>
+      </c>
+      <c r="F147" t="n">
+        <v>3931</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.8046</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>2206</v>
+      </c>
+      <c r="B148" t="n">
+        <v>49999</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>[3126]</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>3126</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3908</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0.7999000000000001</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>2210</v>
+      </c>
+      <c r="B149" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>[3331]</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>3331</v>
+      </c>
+      <c r="F149" t="n">
+        <v>4147</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0.8032</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>2214</v>
+      </c>
+      <c r="B150" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>[3257]</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>3257</v>
+      </c>
+      <c r="F150" t="n">
+        <v>4019</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.8104</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>2218</v>
+      </c>
+      <c r="B151" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>[3220]</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>3220</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3975</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0.8101</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>2222</v>
+      </c>
+      <c r="B152" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>[3244]</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>3244</v>
+      </c>
+      <c r="F152" t="n">
+        <v>4066</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0.7978</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>2226</v>
+      </c>
+      <c r="B153" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>[3227]</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>3227</v>
+      </c>
+      <c r="F153" t="n">
+        <v>4012</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0.8043</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>2230</v>
+      </c>
+      <c r="B154" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>[3197]</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>3197</v>
+      </c>
+      <c r="F154" t="n">
+        <v>3991</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0.8011</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>2234</v>
+      </c>
+      <c r="B155" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>[3247]</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>3247</v>
+      </c>
+      <c r="F155" t="n">
+        <v>4004</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0.8109</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>2238</v>
+      </c>
+      <c r="B156" t="n">
+        <v>249999</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>[3255]</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>3255</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3998</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.8142</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>2242</v>
+      </c>
+      <c r="B157" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>[3201]</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>3201</v>
+      </c>
+      <c r="F157" t="n">
+        <v>3958</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0.8087</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>2246</v>
+      </c>
+      <c r="B158" t="n">
+        <v>299999</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>[3283]</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>3283</v>
+      </c>
+      <c r="F158" t="n">
+        <v>4050</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0.8106</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/M0.4D0.001E0.9A0.8_100x100_MC25_table_experiment.xlsx
+++ b/M0.4D0.001E0.9A0.8_100x100_MC25_table_experiment.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G158"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4395,6 +4395,1081 @@
         <v>0.8106</v>
       </c>
     </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>2250</v>
+      </c>
+      <c r="B159" t="n">
+        <v>199999</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>[3171]</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>3171</v>
+      </c>
+      <c r="F159" t="n">
+        <v>3999</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0.7929</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>2254</v>
+      </c>
+      <c r="B160" t="n">
+        <v>274999</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>[3171]</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>3171</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3935</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0.8058</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>2258</v>
+      </c>
+      <c r="B161" t="n">
+        <v>49999</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>[3293]</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>3293</v>
+      </c>
+      <c r="F161" t="n">
+        <v>4011</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0.821</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>2262</v>
+      </c>
+      <c r="B162" t="n">
+        <v>124999</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>[3222]</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>3222</v>
+      </c>
+      <c r="F162" t="n">
+        <v>4025</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.8005</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>2266</v>
+      </c>
+      <c r="B163" t="n">
+        <v>49999</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>[3253]</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>3253</v>
+      </c>
+      <c r="F163" t="n">
+        <v>4008</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.8116</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>2270</v>
+      </c>
+      <c r="B164" t="n">
+        <v>199999</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>[3223]</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>3223</v>
+      </c>
+      <c r="F164" t="n">
+        <v>3996</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.8066</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>2274</v>
+      </c>
+      <c r="B165" t="n">
+        <v>399999</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>[3219]</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>3219</v>
+      </c>
+      <c r="F165" t="n">
+        <v>3994</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0.806</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>2278</v>
+      </c>
+      <c r="B166" t="n">
+        <v>374999</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>[3257]</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>3257</v>
+      </c>
+      <c r="F166" t="n">
+        <v>3964</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.8216</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>2282</v>
+      </c>
+      <c r="B167" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>[3247]</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>3247</v>
+      </c>
+      <c r="F167" t="n">
+        <v>4043</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0.8031</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>2286</v>
+      </c>
+      <c r="B168" t="n">
+        <v>274999</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>[3258]</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>3258</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3987</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.8172</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>2289</v>
+      </c>
+      <c r="B169" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>[3237]</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>3237</v>
+      </c>
+      <c r="F169" t="n">
+        <v>4013</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0.8066</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>2293</v>
+      </c>
+      <c r="B170" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>[3230]</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>3230</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4017</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.8041</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2297</v>
+      </c>
+      <c r="B171" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>[3221]</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>3221</v>
+      </c>
+      <c r="F171" t="n">
+        <v>3986</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.8081</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>2301</v>
+      </c>
+      <c r="B172" t="n">
+        <v>274999</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>[3268]</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>3268</v>
+      </c>
+      <c r="F172" t="n">
+        <v>4046</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.8077</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>2305</v>
+      </c>
+      <c r="B173" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>[3234]</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>3234</v>
+      </c>
+      <c r="F173" t="n">
+        <v>4004</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0.8077</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>2308</v>
+      </c>
+      <c r="B174" t="n">
+        <v>399999</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>[3249]</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>3249</v>
+      </c>
+      <c r="F174" t="n">
+        <v>4058</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.8006</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>2312</v>
+      </c>
+      <c r="B175" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>[3244]</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>3244</v>
+      </c>
+      <c r="F175" t="n">
+        <v>3999</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.8112</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>2316</v>
+      </c>
+      <c r="B176" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>[3219]</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>3219</v>
+      </c>
+      <c r="F176" t="n">
+        <v>3988</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0.8072</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>2320</v>
+      </c>
+      <c r="B177" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>[3229]</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>3229</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4001</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.8070000000000001</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>2324</v>
+      </c>
+      <c r="B178" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>[3230]</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>3230</v>
+      </c>
+      <c r="F178" t="n">
+        <v>3977</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.8122</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>2328</v>
+      </c>
+      <c r="B179" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>[3254]</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>3254</v>
+      </c>
+      <c r="F179" t="n">
+        <v>3988</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0.8159</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>2332</v>
+      </c>
+      <c r="B180" t="n">
+        <v>174999</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>[3211]</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>3211</v>
+      </c>
+      <c r="F180" t="n">
+        <v>3973</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.8082</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>2336</v>
+      </c>
+      <c r="B181" t="n">
+        <v>49999</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>[3227]</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>3227</v>
+      </c>
+      <c r="F181" t="n">
+        <v>3974</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>2340</v>
+      </c>
+      <c r="B182" t="n">
+        <v>274999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>[3201]</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>3201</v>
+      </c>
+      <c r="F182" t="n">
+        <v>3997</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0.8008999999999999</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>2344</v>
+      </c>
+      <c r="B183" t="n">
+        <v>424999</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>[3228]</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>3228</v>
+      </c>
+      <c r="F183" t="n">
+        <v>4033</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.8004</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>2348</v>
+      </c>
+      <c r="B184" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>[3156]</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>3156</v>
+      </c>
+      <c r="F184" t="n">
+        <v>3931</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.8028</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>2352</v>
+      </c>
+      <c r="B185" t="n">
+        <v>249999</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>[3256]</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>3256</v>
+      </c>
+      <c r="F185" t="n">
+        <v>4081</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0.7978</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>2356</v>
+      </c>
+      <c r="B186" t="n">
+        <v>224999</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>[3222]</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>3222</v>
+      </c>
+      <c r="F186" t="n">
+        <v>4005</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0.8045</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>2360</v>
+      </c>
+      <c r="B187" t="n">
+        <v>49999</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>[3206]</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>3206</v>
+      </c>
+      <c r="F187" t="n">
+        <v>3944</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0.8129</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>2363</v>
+      </c>
+      <c r="B188" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>[3226]</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>3226</v>
+      </c>
+      <c r="F188" t="n">
+        <v>4018</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0.8028999999999999</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>2367</v>
+      </c>
+      <c r="B189" t="n">
+        <v>199999</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>[3145]</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>3145</v>
+      </c>
+      <c r="F189" t="n">
+        <v>3914</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0.8035</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>2371</v>
+      </c>
+      <c r="B190" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>[3200]</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>3200</v>
+      </c>
+      <c r="F190" t="n">
+        <v>3986</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.8028</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>2375</v>
+      </c>
+      <c r="B191" t="n">
+        <v>74999</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>[3309]</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>3309</v>
+      </c>
+      <c r="F191" t="n">
+        <v>4069</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.8132</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>2379</v>
+      </c>
+      <c r="B192" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>[3200]</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>3200</v>
+      </c>
+      <c r="F192" t="n">
+        <v>3997</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0.8006</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>2383</v>
+      </c>
+      <c r="B193" t="n">
+        <v>599999</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>[3251]</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>3251</v>
+      </c>
+      <c r="F193" t="n">
+        <v>4053</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.8021</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>2387</v>
+      </c>
+      <c r="B194" t="n">
+        <v>249999</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>[3204]</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>3204</v>
+      </c>
+      <c r="F194" t="n">
+        <v>4017</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0.7976</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>2391</v>
+      </c>
+      <c r="B195" t="n">
+        <v>99999</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>[3255]</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>3255</v>
+      </c>
+      <c r="F195" t="n">
+        <v>3997</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.8144</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>2394</v>
+      </c>
+      <c r="B196" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>[3204]</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>3204</v>
+      </c>
+      <c r="F196" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.801</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>2396</v>
+      </c>
+      <c r="B197" t="n">
+        <v>349999</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>[3198]</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>3198</v>
+      </c>
+      <c r="F197" t="n">
+        <v>3968</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.8058999999999999</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>2398</v>
+      </c>
+      <c r="B198" t="n">
+        <v>299999</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>[3183]</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>3183</v>
+      </c>
+      <c r="F198" t="n">
+        <v>4032</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0.7894</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>2399</v>
+      </c>
+      <c r="B199" t="n">
+        <v>499999</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>[3235]</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>3235</v>
+      </c>
+      <c r="F199" t="n">
+        <v>3959</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.8171</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B200" t="n">
+        <v>374999</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>[3203]</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>3203</v>
+      </c>
+      <c r="F200" t="n">
+        <v>3997</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.8014</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>2401</v>
+      </c>
+      <c r="B201" t="n">
+        <v>299999</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>[3213]</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>3213</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3992</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.8048999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
